--- a/Respuestas.xlsx
+++ b/Respuestas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monserrath\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F59982B-D87E-4DFF-A040-079F4132BC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA4ADA2-C799-4EB2-AFBF-1ECD7695F954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="19140" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Numero</t>
   </si>
@@ -46,6 +46,21 @@
   </si>
   <si>
     <t>Telefono</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>V5</t>
   </si>
 </sst>
 </file>
@@ -363,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -379,7 +394,7 @@
     <col min="7" max="7" width="8.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,6 +415,21 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
